--- a/artfynd/A 62861-2021.xlsx
+++ b/artfynd/A 62861-2021.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111639174</v>
+        <v>111639170</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>547803.9854679118</v>
+        <v>548231.4260436196</v>
       </c>
       <c r="R2" t="n">
-        <v>6926147.447742103</v>
+        <v>6926519.619127685</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -770,7 +770,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>ca 6 plantor</t>
+          <t>ca 15 plantor</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -797,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111639173</v>
+        <v>111639168</v>
       </c>
       <c r="B3" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,25 +809,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -837,10 +837,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>547838.0352795018</v>
+        <v>548104.1391889038</v>
       </c>
       <c r="R3" t="n">
-        <v>6926228.915831603</v>
+        <v>6926477.987023209</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -883,11 +883,6 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>ca 15 plantor</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -914,7 +909,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111639169</v>
+        <v>111639172</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -954,10 +949,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>548224.5774945696</v>
+        <v>548221.3480213688</v>
       </c>
       <c r="R4" t="n">
-        <v>6926512.579557057</v>
+        <v>6926511.607424877</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1000,11 +995,6 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>riklig förekomst, mer än 50 plantor</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1031,10 +1021,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111639168</v>
+        <v>111639169</v>
       </c>
       <c r="B5" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1043,25 +1033,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1071,10 +1061,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>548104.1391889038</v>
+        <v>548224.5774945696</v>
       </c>
       <c r="R5" t="n">
-        <v>6926477.987023209</v>
+        <v>6926512.579557057</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1117,6 +1107,11 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>riklig förekomst, mer än 50 plantor</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1143,7 +1138,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111639172</v>
+        <v>111639174</v>
       </c>
       <c r="B6" t="n">
         <v>96348</v>
@@ -1183,10 +1178,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>548221.3480213688</v>
+        <v>547803.9854679118</v>
       </c>
       <c r="R6" t="n">
-        <v>6926511.607424877</v>
+        <v>6926147.447742103</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1229,6 +1224,11 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>ca 6 plantor</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1372,7 +1372,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111639170</v>
+        <v>111639173</v>
       </c>
       <c r="B8" t="n">
         <v>96348</v>
@@ -1412,10 +1412,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>548231.4260436196</v>
+        <v>547838.0352795018</v>
       </c>
       <c r="R8" t="n">
-        <v>6926519.619127685</v>
+        <v>6926228.915831603</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>

--- a/artfynd/A 62861-2021.xlsx
+++ b/artfynd/A 62861-2021.xlsx
@@ -797,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111639168</v>
+        <v>111639167</v>
       </c>
       <c r="B3" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,25 +809,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -837,10 +837,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>548104.1391889038</v>
+        <v>547814.5103353403</v>
       </c>
       <c r="R3" t="n">
-        <v>6926477.987023209</v>
+        <v>6926124.461383951</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -883,6 +883,11 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>1 planta</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -909,7 +914,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111639172</v>
+        <v>111639174</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -949,10 +954,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>548221.3480213688</v>
+        <v>547803.9854679118</v>
       </c>
       <c r="R4" t="n">
-        <v>6926511.607424877</v>
+        <v>6926147.447742103</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -995,6 +1000,11 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>ca 6 plantor</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1138,7 +1148,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111639174</v>
+        <v>111639173</v>
       </c>
       <c r="B6" t="n">
         <v>96348</v>
@@ -1178,10 +1188,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>547803.9854679118</v>
+        <v>547838.0352795018</v>
       </c>
       <c r="R6" t="n">
-        <v>6926147.447742103</v>
+        <v>6926228.915831603</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1228,7 +1238,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>ca 6 plantor</t>
+          <t>ca 15 plantor</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1255,10 +1265,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111639167</v>
+        <v>111639168</v>
       </c>
       <c r="B7" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1267,25 +1277,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1295,10 +1305,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>547814.5103353403</v>
+        <v>548104.1391889038</v>
       </c>
       <c r="R7" t="n">
-        <v>6926124.461383951</v>
+        <v>6926477.987023209</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1341,11 +1351,6 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>1 planta</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1372,7 +1377,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111639173</v>
+        <v>111639172</v>
       </c>
       <c r="B8" t="n">
         <v>96348</v>
@@ -1412,10 +1417,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>547838.0352795018</v>
+        <v>548221.3480213688</v>
       </c>
       <c r="R8" t="n">
-        <v>6926228.915831603</v>
+        <v>6926511.607424877</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1458,11 +1463,6 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>ca 15 plantor</t>
         </is>
       </c>
       <c r="AD8" t="b">

--- a/artfynd/A 62861-2021.xlsx
+++ b/artfynd/A 62861-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111639170</v>
+        <v>111639175</v>
       </c>
       <c r="B2" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>548231.4260436196</v>
+        <v>547828.4099300706</v>
       </c>
       <c r="R2" t="n">
-        <v>6926519.619127685</v>
+        <v>6926124.660841302</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -766,11 +766,6 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>ca 15 plantor</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -797,7 +792,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111639167</v>
+        <v>111639170</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -837,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>547814.5103353403</v>
+        <v>548231.4260436196</v>
       </c>
       <c r="R3" t="n">
-        <v>6926124.461383951</v>
+        <v>6926519.619127685</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -887,7 +882,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>1 planta</t>
+          <t>ca 15 plantor</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -914,10 +909,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111639174</v>
+        <v>111639168</v>
       </c>
       <c r="B4" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -926,25 +921,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -954,10 +949,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>547803.9854679118</v>
+        <v>548104.1391889038</v>
       </c>
       <c r="R4" t="n">
-        <v>6926147.447742103</v>
+        <v>6926477.987023209</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1000,11 +995,6 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>ca 6 plantor</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1031,7 +1021,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111639169</v>
+        <v>111639172</v>
       </c>
       <c r="B5" t="n">
         <v>96348</v>
@@ -1071,10 +1061,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>548224.5774945696</v>
+        <v>548221.3480213688</v>
       </c>
       <c r="R5" t="n">
-        <v>6926512.579557057</v>
+        <v>6926511.607424877</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1117,11 +1107,6 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>riklig förekomst, mer än 50 plantor</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1148,7 +1133,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111639173</v>
+        <v>111639167</v>
       </c>
       <c r="B6" t="n">
         <v>96348</v>
@@ -1188,10 +1173,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>547838.0352795018</v>
+        <v>547814.5103353403</v>
       </c>
       <c r="R6" t="n">
-        <v>6926228.915831603</v>
+        <v>6926124.461383951</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1238,7 +1223,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>ca 15 plantor</t>
+          <t>1 planta</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1265,10 +1250,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111639168</v>
+        <v>111639174</v>
       </c>
       <c r="B7" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1277,25 +1262,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1305,10 +1290,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>548104.1391889038</v>
+        <v>547803.9854679118</v>
       </c>
       <c r="R7" t="n">
-        <v>6926477.987023209</v>
+        <v>6926147.447742103</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1351,6 +1336,11 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>ca 6 plantor</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1377,7 +1367,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111639172</v>
+        <v>111639169</v>
       </c>
       <c r="B8" t="n">
         <v>96348</v>
@@ -1417,10 +1407,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>548221.3480213688</v>
+        <v>548224.5774945696</v>
       </c>
       <c r="R8" t="n">
-        <v>6926511.607424877</v>
+        <v>6926512.579557057</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1463,6 +1453,11 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>riklig förekomst, mer än 50 plantor</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1489,10 +1484,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111639175</v>
+        <v>111639173</v>
       </c>
       <c r="B9" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1501,25 +1496,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1529,10 +1524,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>547828.4099300706</v>
+        <v>547838.0352795018</v>
       </c>
       <c r="R9" t="n">
-        <v>6926124.660841302</v>
+        <v>6926228.915831603</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1575,6 +1570,11 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>ca 15 plantor</t>
         </is>
       </c>
       <c r="AD9" t="b">

--- a/artfynd/A 62861-2021.xlsx
+++ b/artfynd/A 62861-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111639175</v>
+        <v>111639167</v>
       </c>
       <c r="B2" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>547828.4099300706</v>
+        <v>547814.5103353403</v>
       </c>
       <c r="R2" t="n">
-        <v>6926124.660841302</v>
+        <v>6926124.461383951</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -766,6 +766,11 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>1 planta</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -792,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111639170</v>
+        <v>111639175</v>
       </c>
       <c r="B3" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +809,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +837,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>548231.4260436196</v>
+        <v>547828.4099300706</v>
       </c>
       <c r="R3" t="n">
-        <v>6926519.619127685</v>
+        <v>6926124.660841302</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -878,11 +883,6 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>ca 15 plantor</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -1133,7 +1133,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111639167</v>
+        <v>111639169</v>
       </c>
       <c r="B6" t="n">
         <v>96348</v>
@@ -1173,10 +1173,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>547814.5103353403</v>
+        <v>548224.5774945696</v>
       </c>
       <c r="R6" t="n">
-        <v>6926124.461383951</v>
+        <v>6926512.579557057</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>1 planta</t>
+          <t>riklig förekomst, mer än 50 plantor</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1367,7 +1367,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111639169</v>
+        <v>111639173</v>
       </c>
       <c r="B8" t="n">
         <v>96348</v>
@@ -1407,10 +1407,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>548224.5774945696</v>
+        <v>547838.0352795018</v>
       </c>
       <c r="R8" t="n">
-        <v>6926512.579557057</v>
+        <v>6926228.915831603</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>riklig förekomst, mer än 50 plantor</t>
+          <t>ca 15 plantor</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1484,7 +1484,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111639173</v>
+        <v>111639170</v>
       </c>
       <c r="B9" t="n">
         <v>96348</v>
@@ -1524,10 +1524,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>547838.0352795018</v>
+        <v>548231.4260436196</v>
       </c>
       <c r="R9" t="n">
-        <v>6926228.915831603</v>
+        <v>6926519.619127685</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>

--- a/artfynd/A 62861-2021.xlsx
+++ b/artfynd/A 62861-2021.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111639167</v>
+        <v>111639174</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>547814.5103353403</v>
+        <v>547803.9854679118</v>
       </c>
       <c r="R2" t="n">
-        <v>6926124.461383951</v>
+        <v>6926147.447742103</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -770,7 +770,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>1 planta</t>
+          <t>ca 6 plantor</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -909,10 +909,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111639168</v>
+        <v>111639173</v>
       </c>
       <c r="B4" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -921,25 +921,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>548104.1391889038</v>
+        <v>547838.0352795018</v>
       </c>
       <c r="R4" t="n">
-        <v>6926477.987023209</v>
+        <v>6926228.915831603</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -995,6 +995,11 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>ca 15 plantor</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1021,7 +1026,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111639172</v>
+        <v>111639170</v>
       </c>
       <c r="B5" t="n">
         <v>96348</v>
@@ -1061,10 +1066,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>548221.3480213688</v>
+        <v>548231.4260436196</v>
       </c>
       <c r="R5" t="n">
-        <v>6926511.607424877</v>
+        <v>6926519.619127685</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1107,6 +1112,11 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>ca 15 plantor</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1133,7 +1143,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111639169</v>
+        <v>111639172</v>
       </c>
       <c r="B6" t="n">
         <v>96348</v>
@@ -1173,10 +1183,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>548224.5774945696</v>
+        <v>548221.3480213688</v>
       </c>
       <c r="R6" t="n">
-        <v>6926512.579557057</v>
+        <v>6926511.607424877</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1219,11 +1229,6 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>riklig förekomst, mer än 50 plantor</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1250,7 +1255,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111639174</v>
+        <v>111639167</v>
       </c>
       <c r="B7" t="n">
         <v>96348</v>
@@ -1290,10 +1295,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>547803.9854679118</v>
+        <v>547814.5103353403</v>
       </c>
       <c r="R7" t="n">
-        <v>6926147.447742103</v>
+        <v>6926124.461383951</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1340,7 +1345,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>ca 6 plantor</t>
+          <t>1 planta</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1367,7 +1372,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111639173</v>
+        <v>111639169</v>
       </c>
       <c r="B8" t="n">
         <v>96348</v>
@@ -1407,10 +1412,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>547838.0352795018</v>
+        <v>548224.5774945696</v>
       </c>
       <c r="R8" t="n">
-        <v>6926228.915831603</v>
+        <v>6926512.579557057</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1457,7 +1462,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>ca 15 plantor</t>
+          <t>riklig förekomst, mer än 50 plantor</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1484,10 +1489,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111639170</v>
+        <v>111639168</v>
       </c>
       <c r="B9" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1496,25 +1501,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1524,10 +1529,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>548231.4260436196</v>
+        <v>548104.1391889038</v>
       </c>
       <c r="R9" t="n">
-        <v>6926519.619127685</v>
+        <v>6926477.987023209</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1570,11 +1575,6 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>ca 15 plantor</t>
         </is>
       </c>
       <c r="AD9" t="b">

--- a/artfynd/A 62861-2021.xlsx
+++ b/artfynd/A 62861-2021.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111639174</v>
+        <v>111639169</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>547803.9854679118</v>
+        <v>548224.5774945696</v>
       </c>
       <c r="R2" t="n">
-        <v>6926147.447742103</v>
+        <v>6926512.579557057</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -770,7 +770,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>ca 6 plantor</t>
+          <t>riklig förekomst, mer än 50 plantor</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -797,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111639175</v>
+        <v>111639172</v>
       </c>
       <c r="B3" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,25 +809,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -837,10 +837,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>547828.4099300706</v>
+        <v>548221.3480213688</v>
       </c>
       <c r="R3" t="n">
-        <v>6926124.660841302</v>
+        <v>6926511.607424877</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111639173</v>
+        <v>111639174</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>547838.0352795018</v>
+        <v>547803.9854679118</v>
       </c>
       <c r="R4" t="n">
-        <v>6926228.915831603</v>
+        <v>6926147.447742103</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -999,7 +999,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>ca 15 plantor</t>
+          <t>ca 6 plantor</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1026,10 +1026,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111639170</v>
+        <v>111639175</v>
       </c>
       <c r="B5" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1038,25 +1038,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1066,10 +1066,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>548231.4260436196</v>
+        <v>547828.4099300706</v>
       </c>
       <c r="R5" t="n">
-        <v>6926519.619127685</v>
+        <v>6926124.660841302</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1112,11 +1112,6 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>ca 15 plantor</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1143,10 +1138,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111639172</v>
+        <v>111639168</v>
       </c>
       <c r="B6" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1155,25 +1150,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1183,10 +1178,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>548221.3480213688</v>
+        <v>548104.1391889038</v>
       </c>
       <c r="R6" t="n">
-        <v>6926511.607424877</v>
+        <v>6926477.987023209</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1255,7 +1250,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111639167</v>
+        <v>111639170</v>
       </c>
       <c r="B7" t="n">
         <v>96348</v>
@@ -1295,10 +1290,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>547814.5103353403</v>
+        <v>548231.4260436196</v>
       </c>
       <c r="R7" t="n">
-        <v>6926124.461383951</v>
+        <v>6926519.619127685</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1345,7 +1340,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>1 planta</t>
+          <t>ca 15 plantor</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1372,7 +1367,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111639169</v>
+        <v>111639173</v>
       </c>
       <c r="B8" t="n">
         <v>96348</v>
@@ -1412,10 +1407,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>548224.5774945696</v>
+        <v>547838.0352795018</v>
       </c>
       <c r="R8" t="n">
-        <v>6926512.579557057</v>
+        <v>6926228.915831603</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1462,7 +1457,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>riklig förekomst, mer än 50 plantor</t>
+          <t>ca 15 plantor</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1489,10 +1484,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111639168</v>
+        <v>111639167</v>
       </c>
       <c r="B9" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1501,25 +1496,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1529,10 +1524,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>548104.1391889038</v>
+        <v>547814.5103353403</v>
       </c>
       <c r="R9" t="n">
-        <v>6926477.987023209</v>
+        <v>6926124.461383951</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1575,6 +1570,11 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>1 planta</t>
         </is>
       </c>
       <c r="AD9" t="b">

--- a/artfynd/A 62861-2021.xlsx
+++ b/artfynd/A 62861-2021.xlsx
@@ -797,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111639172</v>
+        <v>111639168</v>
       </c>
       <c r="B3" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,25 +809,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -837,10 +837,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>548221.3480213688</v>
+        <v>548104.1391889038</v>
       </c>
       <c r="R3" t="n">
-        <v>6926511.607424877</v>
+        <v>6926477.987023209</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111639174</v>
+        <v>111639167</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>547803.9854679118</v>
+        <v>547814.5103353403</v>
       </c>
       <c r="R4" t="n">
-        <v>6926147.447742103</v>
+        <v>6926124.461383951</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -999,7 +999,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>ca 6 plantor</t>
+          <t>1 planta</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1026,10 +1026,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111639175</v>
+        <v>111639173</v>
       </c>
       <c r="B5" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1038,25 +1038,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1066,10 +1066,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>547828.4099300706</v>
+        <v>547838.0352795018</v>
       </c>
       <c r="R5" t="n">
-        <v>6926124.660841302</v>
+        <v>6926228.915831603</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1112,6 +1112,11 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>ca 15 plantor</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1138,10 +1143,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111639168</v>
+        <v>111639172</v>
       </c>
       <c r="B6" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1150,25 +1155,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1178,10 +1183,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>548104.1391889038</v>
+        <v>548221.3480213688</v>
       </c>
       <c r="R6" t="n">
-        <v>6926477.987023209</v>
+        <v>6926511.607424877</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1250,10 +1255,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111639170</v>
+        <v>111639175</v>
       </c>
       <c r="B7" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1262,25 +1267,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1290,10 +1295,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>548231.4260436196</v>
+        <v>547828.4099300706</v>
       </c>
       <c r="R7" t="n">
-        <v>6926519.619127685</v>
+        <v>6926124.660841302</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1336,11 +1341,6 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>ca 15 plantor</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1367,7 +1367,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111639173</v>
+        <v>111639170</v>
       </c>
       <c r="B8" t="n">
         <v>96348</v>
@@ -1407,10 +1407,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>547838.0352795018</v>
+        <v>548231.4260436196</v>
       </c>
       <c r="R8" t="n">
-        <v>6926228.915831603</v>
+        <v>6926519.619127685</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111639167</v>
+        <v>111639174</v>
       </c>
       <c r="B9" t="n">
         <v>96348</v>
@@ -1524,10 +1524,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>547814.5103353403</v>
+        <v>547803.9854679118</v>
       </c>
       <c r="R9" t="n">
-        <v>6926124.461383951</v>
+        <v>6926147.447742103</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>1 planta</t>
+          <t>ca 6 plantor</t>
         </is>
       </c>
       <c r="AD9" t="b">

--- a/artfynd/A 62861-2021.xlsx
+++ b/artfynd/A 62861-2021.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111639169</v>
+        <v>111639173</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>548224.5774945696</v>
+        <v>547838.0352795018</v>
       </c>
       <c r="R2" t="n">
-        <v>6926512.579557057</v>
+        <v>6926228.915831603</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -770,7 +770,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>riklig förekomst, mer än 50 plantor</t>
+          <t>ca 15 plantor</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -797,7 +797,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111639168</v>
+        <v>111639175</v>
       </c>
       <c r="B3" t="n">
         <v>89686</v>
@@ -837,10 +837,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>548104.1391889038</v>
+        <v>547828.4099300706</v>
       </c>
       <c r="R3" t="n">
-        <v>6926477.987023209</v>
+        <v>6926124.660841302</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111639167</v>
+        <v>111639172</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>547814.5103353403</v>
+        <v>548221.3480213688</v>
       </c>
       <c r="R4" t="n">
-        <v>6926124.461383951</v>
+        <v>6926511.607424877</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -995,11 +995,6 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>1 planta</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1026,7 +1021,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111639173</v>
+        <v>111639167</v>
       </c>
       <c r="B5" t="n">
         <v>96348</v>
@@ -1066,10 +1061,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>547838.0352795018</v>
+        <v>547814.5103353403</v>
       </c>
       <c r="R5" t="n">
-        <v>6926228.915831603</v>
+        <v>6926124.461383951</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1116,7 +1111,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>ca 15 plantor</t>
+          <t>1 planta</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1143,7 +1138,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111639172</v>
+        <v>111639170</v>
       </c>
       <c r="B6" t="n">
         <v>96348</v>
@@ -1183,10 +1178,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>548221.3480213688</v>
+        <v>548231.4260436196</v>
       </c>
       <c r="R6" t="n">
-        <v>6926511.607424877</v>
+        <v>6926519.619127685</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1229,6 +1224,11 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>ca 15 plantor</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1255,10 +1255,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111639175</v>
+        <v>111639169</v>
       </c>
       <c r="B7" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1267,25 +1267,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1295,10 +1295,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>547828.4099300706</v>
+        <v>548224.5774945696</v>
       </c>
       <c r="R7" t="n">
-        <v>6926124.660841302</v>
+        <v>6926512.579557057</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1341,6 +1341,11 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>riklig förekomst, mer än 50 plantor</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1367,10 +1372,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111639170</v>
+        <v>111639168</v>
       </c>
       <c r="B8" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1379,25 +1384,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1407,10 +1412,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>548231.4260436196</v>
+        <v>548104.1391889038</v>
       </c>
       <c r="R8" t="n">
-        <v>6926519.619127685</v>
+        <v>6926477.987023209</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1453,11 +1458,6 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>ca 15 plantor</t>
         </is>
       </c>
       <c r="AD8" t="b">

--- a/artfynd/A 62861-2021.xlsx
+++ b/artfynd/A 62861-2021.xlsx
@@ -797,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111639175</v>
+        <v>111639170</v>
       </c>
       <c r="B3" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,25 +809,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -837,10 +837,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>547828.4099300706</v>
+        <v>548231.4260436196</v>
       </c>
       <c r="R3" t="n">
-        <v>6926124.660841302</v>
+        <v>6926519.619127685</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -883,6 +883,11 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>ca 15 plantor</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -1138,7 +1143,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111639170</v>
+        <v>111639169</v>
       </c>
       <c r="B6" t="n">
         <v>96348</v>
@@ -1178,10 +1183,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>548231.4260436196</v>
+        <v>548224.5774945696</v>
       </c>
       <c r="R6" t="n">
-        <v>6926519.619127685</v>
+        <v>6926512.579557057</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1228,7 +1233,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>ca 15 plantor</t>
+          <t>riklig förekomst, mer än 50 plantor</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1255,10 +1260,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111639169</v>
+        <v>111639168</v>
       </c>
       <c r="B7" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1267,25 +1272,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1295,10 +1300,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>548224.5774945696</v>
+        <v>548104.1391889038</v>
       </c>
       <c r="R7" t="n">
-        <v>6926512.579557057</v>
+        <v>6926477.987023209</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1341,11 +1346,6 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>riklig förekomst, mer än 50 plantor</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1372,10 +1372,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111639168</v>
+        <v>111639174</v>
       </c>
       <c r="B8" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1384,25 +1384,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1412,10 +1412,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>548104.1391889038</v>
+        <v>547803.9854679118</v>
       </c>
       <c r="R8" t="n">
-        <v>6926477.987023209</v>
+        <v>6926147.447742103</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1458,6 +1458,11 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>ca 6 plantor</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1484,10 +1489,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111639174</v>
+        <v>111639175</v>
       </c>
       <c r="B9" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1496,25 +1501,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1524,10 +1529,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>547803.9854679118</v>
+        <v>547828.4099300706</v>
       </c>
       <c r="R9" t="n">
-        <v>6926147.447742103</v>
+        <v>6926124.660841302</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1570,11 +1575,6 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>ca 6 plantor</t>
         </is>
       </c>
       <c r="AD9" t="b">

--- a/artfynd/A 62861-2021.xlsx
+++ b/artfynd/A 62861-2021.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111639173</v>
+        <v>111639170</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>547838.0352795018</v>
+        <v>548231</v>
       </c>
       <c r="R2" t="n">
-        <v>6926228.915831603</v>
+        <v>6926520</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -753,19 +753,9 @@
           <t>2023-08-09</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-08-09</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -797,7 +787,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111639170</v>
+        <v>111639167</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -837,10 +827,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>548231.4260436196</v>
+        <v>547815</v>
       </c>
       <c r="R3" t="n">
-        <v>6926519.619127685</v>
+        <v>6926124</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -870,24 +860,14 @@
           <t>2023-08-09</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-08-09</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>ca 15 plantor</t>
+          <t>1 planta</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -914,10 +894,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111639172</v>
+        <v>111639175</v>
       </c>
       <c r="B4" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -926,25 +906,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -954,10 +934,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>548221.3480213688</v>
+        <v>547828</v>
       </c>
       <c r="R4" t="n">
-        <v>6926511.607424877</v>
+        <v>6926125</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -987,19 +967,9 @@
           <t>2023-08-09</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-08-09</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1026,10 +996,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111639167</v>
+        <v>111639168</v>
       </c>
       <c r="B5" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1038,25 +1008,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1066,10 +1036,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>547814.5103353403</v>
+        <v>548104</v>
       </c>
       <c r="R5" t="n">
-        <v>6926124.461383951</v>
+        <v>6926478</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1099,24 +1069,9 @@
           <t>2023-08-09</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-08-09</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>1 planta</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1183,10 +1138,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>548224.5774945696</v>
+        <v>548225</v>
       </c>
       <c r="R6" t="n">
-        <v>6926512.579557057</v>
+        <v>6926513</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1216,19 +1171,9 @@
           <t>2023-08-09</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-08-09</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -1260,10 +1205,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111639168</v>
+        <v>111639174</v>
       </c>
       <c r="B7" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1272,25 +1217,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1300,10 +1245,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>548104.1391889038</v>
+        <v>547804</v>
       </c>
       <c r="R7" t="n">
-        <v>6926477.987023209</v>
+        <v>6926147</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1333,19 +1278,14 @@
           <t>2023-08-09</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>2023-08-09</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>ca 6 plantor</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1372,7 +1312,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111639174</v>
+        <v>111639173</v>
       </c>
       <c r="B8" t="n">
         <v>96348</v>
@@ -1412,10 +1352,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>547803.9854679118</v>
+        <v>547838</v>
       </c>
       <c r="R8" t="n">
-        <v>6926147.447742103</v>
+        <v>6926229</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1445,24 +1385,14 @@
           <t>2023-08-09</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-08-09</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>ca 6 plantor</t>
+          <t>ca 15 plantor</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1489,10 +1419,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111639175</v>
+        <v>111639172</v>
       </c>
       <c r="B9" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1501,25 +1431,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1529,10 +1459,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>547828.4099300706</v>
+        <v>548221</v>
       </c>
       <c r="R9" t="n">
-        <v>6926124.660841302</v>
+        <v>6926512</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1562,19 +1492,9 @@
           <t>2023-08-09</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-08-09</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
